--- a/biology/Médecine/Tawfiq_Canaan/Tawfiq_Canaan.xlsx
+++ b/biology/Médecine/Tawfiq_Canaan/Tawfiq_Canaan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tawfiq Canaan (arabe : توفيق كنعان), né le 24 septembre 1882 à Beit Jala et mort le 15 janvier 1964 à Jérusalem, est un médecin et un pionnier dans le domaine de la médecine en Palestine. Il est également connue pour être l'un des principaux chercheurs de l'héritage populaire palestinien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin dans l'armée ottomane pendant la Première Guerre mondiale, et premier président de l'Association médicale de la Palestine arabe créée en 1944, Canaan est l'auteur de plus de 37 études dans sa carrière médicale centrée sur la médecine tropicale et la microbiologie. Contribuant à la recherche qui a conduit à la découverte d'un remède contre le paludisme, les autres thèmes abordés dans ses études de médecine comprennent la lèpre, la tuberculose et les conditions de santé en Palestine.
 L'intérêt de Canaan pour le folklore palestinien, les croyances populaires et les superstitions et l'a conduit à collectionner de plus de 1 400 amulettes, désormais propriété de l'université de Bir Zeit à Ramallah. Il a publié des analyses de ces traditions populaires et d'autres l'ont amené la reconnaissance comme un ethnographe et anthropologue. Membre de la Palestine Oriental Society et l'American School for Oriental Research, Canaan a publié un certain nombre de livres et de plus de cinquante articles en anglais et en allemand sur le folklore et les superstitions qui ont servi comme ressources précieuses pour les chercheurs modernes s'intéressant au Moyen-Orient.
